--- a/medicine/Psychotrope/Raisiné/Raisiné.xlsx
+++ b/medicine/Psychotrope/Raisiné/Raisiné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raisin%C3%A9</t>
+          <t>Raisiné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 raisiné, sur le Wiktionnaire
 le raisiné : en France, compote cuite dans le jus de raisin réduit (en Charente). Le raisiné est une spécialité élaborée à partir de jus de raisin. Il faut des raisins noirs très mûrs et très doux provenant de coteaux ensoleillés.
 le raisiné bourguignon
-la raisinée : en Suisse, la raisinée[1], le raisiné, résiné (Vaud, la Côte), le vin cuit (Fribourg et Broye), cugnarde, coignarde, Biresaasa (Fribourg alémanique). Moûts hautement concentrés de pommes, poires ou raisins, éventuellement d'autres fruits, qui se présentent sous forme d'un liquide brun-noir visqueux.</t>
+la raisinée : en Suisse, la raisinée, le raisiné, résiné (Vaud, la Côte), le vin cuit (Fribourg et Broye), cugnarde, coignarde, Biresaasa (Fribourg alémanique). Moûts hautement concentrés de pommes, poires ou raisins, éventuellement d'autres fruits, qui se présentent sous forme d'un liquide brun-noir visqueux.</t>
         </is>
       </c>
     </row>
